--- a/sputnik/personal/uch/uch14.xlsx
+++ b/sputnik/personal/uch/uch14.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Начислен членский взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Оплата членского взноса 2014/2015</t>
+  </si>
+  <si>
+    <t>Оплачен аванс  членского взноса 2020</t>
   </si>
 </sst>
 </file>
@@ -193,15 +199,15 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -509,10 +515,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D3:D8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -524,102 +530,115 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
         <v>43221</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C3" s="7">
         <v>450</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
         <v>43221</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C4" s="6">
         <v>10571.26</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
         <v>43232</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>43335</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>43335</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
         <v>1571.26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>43586</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C7" s="8">
         <v>10421.18</v>
       </c>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>43826</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="14">
-        <v>10500</v>
-      </c>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="15">
         <v>43826</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="15">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8">
+        <v>10421.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>43826</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="13">
         <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>43826</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
+        <v>78.819999999999993</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch14.xlsx
+++ b/sputnik/personal/uch/uch14.xlsx
@@ -518,7 +518,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D10" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/sputnik/personal/uch/uch14.xlsx
+++ b/sputnik/personal/uch/uch14.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Оплачен аванс  членского взноса 2020</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -171,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -208,6 +211,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -515,10 +519,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D8:D10"/>
+      <selection activeCell="C11" sqref="C11:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -640,6 +644,36 @@
       <c r="D10" s="8">
         <v>78.819999999999993</v>
       </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>43952</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12">
+        <v>11725</v>
+      </c>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch14.xlsx
+++ b/sputnik/personal/uch/uch14.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -522,7 +522,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -658,10 +658,16 @@
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="16">
+        <v>44084</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="12">
+        <v>11521.18</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>

--- a/sputnik/personal/uch/uch14.xlsx
+++ b/sputnik/personal/uch/uch14.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -670,9 +673,15 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="12"/>
+      <c r="A13" s="16">
+        <v>44317</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="12">
+        <v>12495.24</v>
+      </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/uch/uch14.xlsx
+++ b/sputnik/personal/uch/uch14.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -525,7 +525,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -685,10 +685,16 @@
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="16">
+        <v>44418</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="12">
+        <v>12495.24</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch14.xlsx
+++ b/sputnik/personal/uch/uch14.xlsx
@@ -177,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -192,12 +192,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -205,9 +199,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -215,6 +206,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -525,7 +528,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C3" sqref="C3:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -539,10 +542,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -553,146 +556,146 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="9">
         <v>43221</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="12">
         <v>450</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="9">
         <v>43221</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="14">
         <v>10571.26</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="9">
         <v>43232</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14">
         <v>9000</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="9">
         <v>43335</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14">
         <v>1571.26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="10">
         <v>43586</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="15">
         <v>10421.18</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="10">
         <v>43826</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15">
         <v>10421.18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="10">
         <v>43826</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="13">
+      <c r="C9" s="16"/>
+      <c r="D9" s="17">
         <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="10">
         <v>43826</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15">
         <v>78.819999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="11">
         <v>43952</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="15">
         <v>11725</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="11">
         <v>44084</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15">
         <v>11521.18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="11">
         <v>44317</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="15">
         <v>12495.24</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="11">
         <v>44418</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15">
         <v>12495.24</v>
       </c>
     </row>
